--- a/holt_forecast_2023_by_channel_product_size.xlsx
+++ b/holt_forecast_2023_by_channel_product_size.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,69 +434,264 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>product_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>channel_id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>forecast</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>alpha</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>beta</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>merged_06GE2U92FA_DTPQ67872X_G8WP29EHC6_HYT3MYM7CY_IMFA21HLV3_JU9OS20S99_PPB56V08LB_R5X6KPETN3_RX38XS00QN</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>merged_L_M_S_XL_XS_XXL_XXS_onesize</t>
+          <t>06GE2U92FA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2023</v>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>12936.15740310488</v>
+        <v>2023</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8535714285714285</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0001</v>
+        <v>137.2799219247281</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>06GE2U92FA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F3" t="n">
+        <v>154.8219779025313</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>06GE2U92FA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>merged_S_XL_XS_XXL_XXS_onesize</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1959.104618783967</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RX38XS00QN</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F5" t="n">
+        <v>26.00347037618111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RX38XS00QN</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F6" t="n">
+        <v>47.94089677635516</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RX38XS00QN</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>merged_S_XL_XS_XXL_XXS_onesize</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F7" t="n">
+        <v>428.0428954873993</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>merged_DTPQ67872X_G8WP29EHC6_HYT3MYM7CY_IMFA21HLV3_JU9OS20S99_PPB56V08LB_R5X6KPETN3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2287.76789072162</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>merged_DTPQ67872X_G8WP29EHC6_HYT3MYM7CY_IMFA21HLV3_JU9OS20S99_PPB56V08LB_R5X6KPETN3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2198.632196859413</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>merged_DTPQ67872X_G8WP29EHC6_HYT3MYM7CY_IMFA21HLV3_JU9OS20S99_PPB56V08LB_R5X6KPETN3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>merged_S_XL_XS_XXL_XXS_onesize</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5683.820877267079</v>
       </c>
     </row>
   </sheetData>

--- a/holt_forecast_2023_by_channel_product_size.xlsx
+++ b/holt_forecast_2023_by_channel_product_size.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>merged_L_M_S_XL_XS_XXL_XXS_onesize</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -483,7 +483,7 @@
         <v>2023</v>
       </c>
       <c r="F2" t="n">
-        <v>137.2799219247281</v>
+        <v>2269.096100188983</v>
       </c>
     </row>
     <row r="3">
@@ -492,12 +492,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>06GE2U92FA</t>
+          <t>merged_DTPQ67872X_G8WP29EHC6_HYT3MYM7CY_IMFA21HLV3_JU9OS20S99_PPB56V08LB_R5X6KPETN3_RX38XS00QN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>merged_L_M_S_XL_XS_XXL_XXS_onesize</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,189 +509,7 @@
         <v>2023</v>
       </c>
       <c r="F3" t="n">
-        <v>154.8219779025313</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>06GE2U92FA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>merged_S_XL_XS_XXL_XXS_onesize</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1959.104618783967</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>RX38XS00QN</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F5" t="n">
-        <v>26.00347037618111</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RX38XS00QN</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F6" t="n">
-        <v>47.94089677635516</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>RX38XS00QN</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>merged_S_XL_XS_XXL_XXS_onesize</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F7" t="n">
-        <v>428.0428954873993</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>merged_DTPQ67872X_G8WP29EHC6_HYT3MYM7CY_IMFA21HLV3_JU9OS20S99_PPB56V08LB_R5X6KPETN3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2287.76789072162</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>merged_DTPQ67872X_G8WP29EHC6_HYT3MYM7CY_IMFA21HLV3_JU9OS20S99_PPB56V08LB_R5X6KPETN3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2198.632196859413</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>merged_DTPQ67872X_G8WP29EHC6_HYT3MYM7CY_IMFA21HLV3_JU9OS20S99_PPB56V08LB_R5X6KPETN3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>merged_S_XL_XS_XXL_XXS_onesize</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5683.820877267079</v>
+        <v>10525.32983311416</v>
       </c>
     </row>
   </sheetData>
